--- a/tools/excel/nist/nist-csf-1.1.xlsx
+++ b/tools/excel/nist/nist-csf-1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/nist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\excel\nist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755B1237-F187-884F-826F-0CE8F404FBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181602A2-BAC4-4D4C-961E-D5F060A310E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22620" yWindow="-9410" windowWidth="27990" windowHeight="14630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="5" r:id="rId1"/>
@@ -1974,53 +1974,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2036,7 +2034,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2338,14 +2336,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>270</v>
       </c>
@@ -2353,7 +2351,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>271</v>
       </c>
@@ -2361,7 +2359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>287</v>
       </c>
@@ -2369,7 +2367,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>288</v>
       </c>
@@ -2377,7 +2375,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>273</v>
       </c>
@@ -2385,7 +2383,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -2393,7 +2391,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>286</v>
       </c>
@@ -2401,7 +2399,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>283</v>
       </c>
@@ -2409,7 +2407,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>284</v>
       </c>
@@ -2417,7 +2415,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>276</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>290</v>
       </c>
@@ -2433,7 +2431,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>275</v>
       </c>
@@ -2441,7 +2439,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>277</v>
       </c>
@@ -2449,7 +2447,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>310</v>
       </c>
@@ -2457,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>311</v>
       </c>
@@ -2465,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>278</v>
       </c>
@@ -2476,7 +2474,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>278</v>
       </c>
@@ -2487,7 +2485,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>454</v>
       </c>
@@ -2495,7 +2493,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>455</v>
       </c>
@@ -2512,21 +2510,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="61.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.69921875" customWidth="1"/>
     <col min="7" max="7" width="103.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>297</v>
       </c>
@@ -2549,7 +2547,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -2565,7 +2563,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -2581,7 +2579,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>298</v>
       </c>
@@ -2598,7 +2596,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>298</v>
       </c>
@@ -2615,7 +2613,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>298</v>
       </c>
@@ -2632,7 +2630,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>298</v>
       </c>
@@ -2649,7 +2647,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -2666,7 +2664,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -2683,7 +2681,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -2699,7 +2697,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>298</v>
       </c>
@@ -2716,7 +2714,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>298</v>
       </c>
@@ -2733,7 +2731,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>298</v>
       </c>
@@ -2750,7 +2748,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -2767,7 +2765,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -2784,7 +2782,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -2800,7 +2798,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>298</v>
       </c>
@@ -2817,7 +2815,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>298</v>
       </c>
@@ -2834,7 +2832,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>298</v>
       </c>
@@ -2851,7 +2849,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>298</v>
       </c>
@@ -2868,7 +2866,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>2</v>
       </c>
@@ -2884,7 +2882,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -2901,7 +2899,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>298</v>
       </c>
@@ -2918,7 +2916,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>298</v>
       </c>
@@ -2935,7 +2933,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>298</v>
       </c>
@@ -2952,7 +2950,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>298</v>
       </c>
@@ -2969,7 +2967,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>298</v>
       </c>
@@ -2986,7 +2984,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -3002,7 +3000,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>298</v>
       </c>
@@ -3019,7 +3017,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>298</v>
       </c>
@@ -3036,7 +3034,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>298</v>
       </c>
@@ -3053,7 +3051,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>2</v>
       </c>
@@ -3069,7 +3067,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>298</v>
       </c>
@@ -3086,7 +3084,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>298</v>
       </c>
@@ -3103,7 +3101,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>298</v>
       </c>
@@ -3120,7 +3118,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>298</v>
       </c>
@@ -3137,7 +3135,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>298</v>
       </c>
@@ -3154,7 +3152,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -3170,7 +3168,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>2</v>
       </c>
@@ -3186,7 +3184,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>298</v>
       </c>
@@ -3203,7 +3201,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>298</v>
       </c>
@@ -3220,7 +3218,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>298</v>
       </c>
@@ -3237,7 +3235,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>298</v>
       </c>
@@ -3254,7 +3252,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>298</v>
       </c>
@@ -3271,7 +3269,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>298</v>
       </c>
@@ -3288,7 +3286,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>298</v>
       </c>
@@ -3305,7 +3303,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>2</v>
       </c>
@@ -3321,7 +3319,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>298</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>298</v>
       </c>
@@ -3355,7 +3353,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>298</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>298</v>
       </c>
@@ -3389,7 +3387,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>298</v>
       </c>
@@ -3406,7 +3404,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>2</v>
       </c>
@@ -3422,7 +3420,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>298</v>
       </c>
@@ -3439,7 +3437,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>298</v>
       </c>
@@ -3456,7 +3454,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>298</v>
       </c>
@@ -3473,7 +3471,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>298</v>
       </c>
@@ -3490,7 +3488,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>298</v>
       </c>
@@ -3507,7 +3505,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>298</v>
       </c>
@@ -3524,7 +3522,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>298</v>
       </c>
@@ -3541,7 +3539,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>2</v>
       </c>
@@ -3574,7 +3572,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>298</v>
       </c>
@@ -3591,7 +3589,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>298</v>
       </c>
@@ -3608,7 +3606,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>298</v>
       </c>
@@ -3625,7 +3623,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>298</v>
       </c>
@@ -3642,7 +3640,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>298</v>
       </c>
@@ -3659,7 +3657,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>298</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>298</v>
       </c>
@@ -3693,7 +3691,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>298</v>
       </c>
@@ -3710,7 +3708,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>298</v>
       </c>
@@ -3727,7 +3725,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>298</v>
       </c>
@@ -3744,7 +3742,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>298</v>
       </c>
@@ -3761,7 +3759,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>298</v>
       </c>
@@ -3778,7 +3776,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>2</v>
       </c>
@@ -3794,7 +3792,7 @@
       </c>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>298</v>
       </c>
@@ -3811,7 +3809,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>298</v>
       </c>
@@ -3828,7 +3826,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>2</v>
       </c>
@@ -3844,7 +3842,7 @@
       </c>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>298</v>
       </c>
@@ -3861,7 +3859,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>298</v>
       </c>
@@ -3878,7 +3876,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>298</v>
       </c>
@@ -3895,7 +3893,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>298</v>
       </c>
@@ -3912,7 +3910,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>298</v>
       </c>
@@ -3929,7 +3927,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <v>1</v>
       </c>
@@ -3945,7 +3943,7 @@
       </c>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>2</v>
       </c>
@@ -3961,7 +3959,7 @@
       </c>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>298</v>
       </c>
@@ -3978,7 +3976,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>298</v>
       </c>
@@ -3995,7 +3993,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>298</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>298</v>
       </c>
@@ -4029,7 +4027,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>298</v>
       </c>
@@ -4046,7 +4044,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>2</v>
       </c>
@@ -4062,7 +4060,7 @@
       </c>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>298</v>
       </c>
@@ -4079,7 +4077,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>298</v>
       </c>
@@ -4096,7 +4094,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>298</v>
       </c>
@@ -4113,7 +4111,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>298</v>
       </c>
@@ -4130,7 +4128,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>298</v>
       </c>
@@ -4147,7 +4145,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>298</v>
       </c>
@@ -4164,7 +4162,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>298</v>
       </c>
@@ -4181,7 +4179,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>298</v>
       </c>
@@ -4198,7 +4196,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="2">
         <v>2</v>
       </c>
@@ -4214,7 +4212,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>298</v>
       </c>
@@ -4231,7 +4229,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>298</v>
       </c>
@@ -4248,7 +4246,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>298</v>
       </c>
@@ -4265,7 +4263,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>298</v>
       </c>
@@ -4282,7 +4280,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>298</v>
       </c>
@@ -4299,7 +4297,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="2">
         <v>1</v>
       </c>
@@ -4315,7 +4313,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
         <v>2</v>
       </c>
@@ -4331,7 +4329,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>298</v>
       </c>
@@ -4348,7 +4346,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B109" s="2">
         <v>2</v>
       </c>
@@ -4364,7 +4362,7 @@
       </c>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>298</v>
       </c>
@@ -4381,7 +4379,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>298</v>
       </c>
@@ -4398,7 +4396,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>298</v>
       </c>
@@ -4415,7 +4413,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>298</v>
       </c>
@@ -4432,7 +4430,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>298</v>
       </c>
@@ -4449,7 +4447,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115" s="2">
         <v>2</v>
@@ -4466,7 +4464,7 @@
       </c>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>298</v>
       </c>
@@ -4483,7 +4481,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>298</v>
       </c>
@@ -4500,7 +4498,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>298</v>
       </c>
@@ -4517,7 +4515,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>298</v>
       </c>
@@ -4534,7 +4532,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>298</v>
       </c>
@@ -4551,7 +4549,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121"/>
       <c r="B121" s="2">
         <v>2</v>
@@ -4568,7 +4566,7 @@
       </c>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>298</v>
       </c>
@@ -4585,7 +4583,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>298</v>
       </c>
@@ -4602,7 +4600,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>298</v>
       </c>
@@ -4619,7 +4617,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125" s="2">
         <v>2</v>
@@ -4636,7 +4634,7 @@
       </c>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>298</v>
       </c>
@@ -4653,7 +4651,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>298</v>
       </c>
@@ -4670,7 +4668,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128" s="2">
         <v>1</v>
@@ -4687,7 +4685,7 @@
       </c>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129" s="2">
         <v>2</v>
@@ -4704,7 +4702,7 @@
       </c>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>298</v>
       </c>
@@ -4721,7 +4719,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131" s="2">
         <v>2</v>
@@ -4738,7 +4736,7 @@
       </c>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>298</v>
       </c>
@@ -4755,7 +4753,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>298</v>
       </c>
@@ -4772,7 +4770,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134"/>
       <c r="B134" s="2">
         <v>2</v>
@@ -4789,7 +4787,7 @@
       </c>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>298</v>
       </c>
@@ -4806,7 +4804,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>298</v>
       </c>
@@ -4823,7 +4821,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>298</v>
       </c>
@@ -4841,31 +4839,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D21:E21"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4878,15 +4851,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="114.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="114.296875" customWidth="1"/>
+    <col min="4" max="4" width="29.69921875" customWidth="1"/>
     <col min="5" max="5" width="114.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>301</v>
       </c>
@@ -4903,7 +4876,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4920,7 +4893,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4937,7 +4910,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4954,7 +4927,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4971,20 +4944,20 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="5"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
     </row>
